--- a/julho.xlsx
+++ b/julho.xlsx
@@ -335,124 +335,120 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>89.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>78.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>89.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
+      <c r="A6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>69.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>78.0</v>
+        <v>199.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>149.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>2.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>199.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>260.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>130.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>17.0</v>
+        <v>199.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
-        <v>199.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
